--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H2">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2280253333333333</v>
+        <v>0.01182833333333333</v>
       </c>
       <c r="N2">
-        <v>0.684076</v>
+        <v>0.035485</v>
       </c>
       <c r="O2">
-        <v>0.5347665151402629</v>
+        <v>0.03045376408867423</v>
       </c>
       <c r="P2">
-        <v>0.5347665151402629</v>
+        <v>0.03045376408867423</v>
       </c>
       <c r="Q2">
-        <v>0.6435101411831111</v>
+        <v>0.0002151416122222223</v>
       </c>
       <c r="R2">
-        <v>5.791591270648</v>
+        <v>0.00193627451</v>
       </c>
       <c r="S2">
-        <v>0.5347665151402629</v>
+        <v>0.0001950201401245927</v>
       </c>
       <c r="T2">
-        <v>0.5347665151402629</v>
+        <v>0.0001950201401245927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H3">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,28 +614,276 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1983763333333333</v>
+        <v>0.2280253333333333</v>
       </c>
       <c r="N3">
-        <v>0.595129</v>
+        <v>0.684076</v>
       </c>
       <c r="O3">
-        <v>0.4652334848597371</v>
+        <v>0.5870843771374921</v>
       </c>
       <c r="P3">
-        <v>0.4652334848597371</v>
+        <v>0.5870843771374921</v>
       </c>
       <c r="Q3">
-        <v>0.5598377180491112</v>
+        <v>0.004147476779555556</v>
       </c>
       <c r="R3">
-        <v>5.038539462442</v>
+        <v>0.03732729101600001</v>
       </c>
       <c r="S3">
-        <v>0.4652334848597371</v>
+        <v>0.003759577212226882</v>
       </c>
       <c r="T3">
-        <v>0.4652334848597371</v>
+        <v>0.003759577212226882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.054566</v>
+      </c>
+      <c r="I4">
+        <v>0.006403810693375696</v>
+      </c>
+      <c r="J4">
+        <v>0.006403810693375696</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.1485493333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.445648</v>
+      </c>
+      <c r="O4">
+        <v>0.3824618587738337</v>
+      </c>
+      <c r="P4">
+        <v>0.3824618587738337</v>
+      </c>
+      <c r="Q4">
+        <v>0.002701914307555556</v>
+      </c>
+      <c r="R4">
+        <v>0.024317228768</v>
+      </c>
+      <c r="S4">
+        <v>0.002449213341024221</v>
+      </c>
+      <c r="T4">
+        <v>0.002449213341024221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H5">
+        <v>8.466298</v>
+      </c>
+      <c r="I5">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J5">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.01182833333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.035485</v>
+      </c>
+      <c r="O5">
+        <v>0.03045376408867423</v>
+      </c>
+      <c r="P5">
+        <v>0.03045376408867423</v>
+      </c>
+      <c r="Q5">
+        <v>0.03338073161444445</v>
+      </c>
+      <c r="R5">
+        <v>0.30042658453</v>
+      </c>
+      <c r="S5">
+        <v>0.03025874394854963</v>
+      </c>
+      <c r="T5">
+        <v>0.03025874394854964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H6">
+        <v>8.466298</v>
+      </c>
+      <c r="I6">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J6">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.2280253333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.684076</v>
+      </c>
+      <c r="O6">
+        <v>0.5870843771374921</v>
+      </c>
+      <c r="P6">
+        <v>0.5870843771374921</v>
+      </c>
+      <c r="Q6">
+        <v>0.6435101411831111</v>
+      </c>
+      <c r="R6">
+        <v>5.791591270648</v>
+      </c>
+      <c r="S6">
+        <v>0.5833247999252652</v>
+      </c>
+      <c r="T6">
+        <v>0.5833247999252652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H7">
+        <v>8.466298</v>
+      </c>
+      <c r="I7">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J7">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1485493333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.445648</v>
+      </c>
+      <c r="O7">
+        <v>0.3824618587738337</v>
+      </c>
+      <c r="P7">
+        <v>0.3824618587738337</v>
+      </c>
+      <c r="Q7">
+        <v>0.4192209745671112</v>
+      </c>
+      <c r="R7">
+        <v>3.772988771104</v>
+      </c>
+      <c r="S7">
+        <v>0.3800126454328095</v>
+      </c>
+      <c r="T7">
+        <v>0.3800126454328095</v>
       </c>
     </row>
   </sheetData>
